--- a/data/case1/13/Q1_14.xlsx
+++ b/data/case1/13/Q1_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.15751062931927606</v>
+        <v>0.14696094660155978</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999850504082</v>
+        <v>-0.0059999999684805516</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999873518988</v>
+        <v>-0.0039999999735655933</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999764961416</v>
+        <v>-0.0079999999511759512</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999875132133</v>
+        <v>-0.0029999999751479933</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999873760999</v>
+        <v>-0.0019999999756343811</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999999677757856</v>
+        <v>-0.009999999934006798</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999999674871276</v>
+        <v>-0.0099999999331017442</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999869027008</v>
+        <v>-0.0019999999736293184</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999869622087</v>
+        <v>-0.0019999999732966955</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999845475855</v>
+        <v>0.023854260801837945</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.003499999983385127</v>
+        <v>-0.0034999999648714919</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.027806895046534663</v>
+        <v>-0.0034999999616980304</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999726529936</v>
+        <v>-0.0079999999377156072</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0009999999894541034</v>
+        <v>-0.00099999997317379297</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999867752472</v>
+        <v>-0.0019999999675270885</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.001999999986446177</v>
+        <v>-0.001999999966782795</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999814828158</v>
+        <v>-0.0039999999562976285</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.003999999989747316</v>
+        <v>-0.0039999999786082263</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.003999999989060754</v>
+        <v>-0.0039999999770099492</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999889417381</v>
+        <v>-0.0039999999767852401</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.003999999988841374</v>
+        <v>-0.0039999999765898409</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999841441323</v>
+        <v>-0.016250905885054401</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999946336722</v>
+        <v>-0.019999999885754072</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999945641278</v>
+        <v>-0.01999999988424328</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.038536468751862785</v>
+        <v>-0.0024999999727430833</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.002499999985649648</v>
+        <v>0.012411512747096953</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999863928863</v>
+        <v>-0.0019999999716109329</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.019148943179956746</v>
+        <v>-0.0069999999436785032</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.010416650245053116</v>
+        <v>-0.059999999670682147</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999999742318408</v>
+        <v>-0.0069999999457017736</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999999670199458</v>
+        <v>0.046300293820442207</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.018484923451845603</v>
+        <v>-0.0039999999619944049</v>
       </c>
     </row>
   </sheetData>
